--- a/tests/testthat/test_raw.xlsx
+++ b/tests/testthat/test_raw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="11340" windowHeight="6800"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="11340" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,30 +60,6 @@
     <t>Example</t>
   </si>
   <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
-    <t>v5</t>
-  </si>
-  <si>
-    <t>v6</t>
-  </si>
-  <si>
-    <t>v7</t>
-  </si>
-  <si>
-    <t>v8</t>
-  </si>
-  <si>
     <t>v9</t>
   </si>
   <si>
@@ -169,6 +145,30 @@
   </si>
   <si>
     <t>v37</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4a</t>
+  </si>
+  <si>
+    <t>q5a</t>
+  </si>
+  <si>
+    <t>q7pa</t>
+  </si>
+  <si>
+    <t>q7sa</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>q10</t>
   </si>
 </sst>
 </file>
@@ -486,125 +486,125 @@
   <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AA1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" t="s">
         <v>34</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>35</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AF1" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AH1" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AI1" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AJ1" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -830,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
